--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 18,17</t>
+          <t>-4,08; 19,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 21,4</t>
+          <t>-10,04; 20,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 28,28</t>
+          <t>-5,33; 29,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 53,28</t>
+          <t>-17,24; 52,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>12,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 14,27</t>
+          <t>2,71; 22,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,85; -3,34</t>
+          <t>-45,89; -3,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 19,33</t>
+          <t>3,59; 35,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,47; -4,74</t>
+          <t>-64,68; -4,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 10,86</t>
+          <t>-4,68; 7,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 7,34</t>
+          <t>-7,04; 8,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 13,78</t>
+          <t>-5,35; 9,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 12,61</t>
+          <t>-10,24; 15,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,55</t>
+          <t>-2,48; 7,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 53,8</t>
+          <t>0,64; 55,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 13,09</t>
+          <t>-2,72; 9,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 392,63</t>
+          <t>1,02; 377,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 8,1</t>
+          <t>-2,01; 8,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 10,08</t>
+          <t>-3,48; 8,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 9,88</t>
+          <t>-2,24; 9,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 15,19</t>
+          <t>-4,55; 13,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 14,11</t>
+          <t>0,02; 14,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 3,72</t>
+          <t>-8,76; 4,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 20,54</t>
+          <t>-0,06; 20,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 5,58</t>
+          <t>-11,95; 6,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 5,39</t>
+          <t>-7,17; 5,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 4,65</t>
+          <t>-8,95; 5,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 6,84</t>
+          <t>-8,25; 7,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 6,52</t>
+          <t>-11,04; 7,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,7</t>
+          <t>1,42; 6,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 23,9</t>
+          <t>-2,8; 24,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,42</t>
+          <t>1,74; 8,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 60,83</t>
+          <t>-4,24; 60,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>8,78</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>12,16%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-7,57; 20,93</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-8,34; 9,32</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-4,08; 19,35</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,04; 20,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 9,32</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-13,09; 49,03</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-12,38; 16,15</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-5,33; 29,41</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-17,24; 52,2</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-12,38; 16,15</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-8,01</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>12,09</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-20,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-11,86%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>16,63%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-31,14%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,89%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-17,49; 3,14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-9,36; 6,53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>2,71; 22,6</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-45,89; -3,07</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,36; 6,53</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-23,92; 4,93</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-13,47; 10,5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>3,59; 35,68</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-64,68; -4,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-13,47; 10,5</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,82</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-1,92%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>2,14%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,13%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-8,22; 6,33</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-6,62; 6,67</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-4,68; 7,8</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 8,57</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,62; 6,67</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-11,84; 10,41</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-9,56; 10,68</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-5,35; 9,49</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-10,24; 15,29</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-9,56; 10,68</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,52</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>27,85</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-2,91%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>2,93%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>70,99%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,91%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-5,46; 6,88</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; 3,4</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-2,48; 7,81</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 55,56</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 3,4</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-7,66; 11,19</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-12,02; 5,25</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-2,72; 9,39</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 377,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-12,02; 5,25</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,95</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3,01</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,95</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-4,34%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>3,5%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,58%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,34%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-2,97; 8,83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,67; 4,07</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-2,01; 8,08</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 8,86</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,67; 4,07</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-3,98; 13,24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-13,51; 6,36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-2,24; 9,83</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 13,21</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-13,51; 6,36</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>7,09</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,62</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,38</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-5,15%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>9,69%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-3,77%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-5,15%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-8,36; 4,73</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; 3,12</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,02; 14,23</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-8,76; 4,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; 3,12</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-11,5; 6,6</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-14,52; 4,79</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-0,06; 20,62</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-11,95; 6,9</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-14,52; 4,79</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-2,42</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-1,02</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,38</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-3,14%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-1,25%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-3,11%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-8,98; 5,19</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 8,72</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-7,17; 5,97</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 5,27</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 8,72</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-10,95; 7,09</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 14,93</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-8,25; 7,72</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; 7,3</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-6,34; 14,93</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>4,12</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>6,29</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>0,01%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-1,87%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>5,09%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>10,93%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-1,87%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-3,12; 3,0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 1,2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1,42; 6,89</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 24,6</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 1,2</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>-4,53; 4,63</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 1,85</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>1,74; 8,65</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 60,43</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 1,85</t>
         </is>
       </c>
     </row>
